--- a/configinfo.xlsx
+++ b/configinfo.xlsx
@@ -16,28 +16,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t xml:space="preserve">No fields are mandatory, if you don't provide it will search whole project root for .spec or .test by default. But after whole search if any .only is found it will switch its default setting that was searching for .spec or .test and running all to just searching for .only specified test and running.</t>
+  </si>
   <si>
     <t>Property</t>
   </si>
   <si>
-    <t xml:space="preserve">Mandatory Y/N</t>
-  </si>
-  <si>
     <t>Path</t>
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>testDir</t>
+  </si>
+  <si>
+    <t>Root</t>
+  </si>
+  <si>
+    <t xml:space="preserve">searches for by default in specified and directories inside that recursively</t>
+  </si>
+  <si>
+    <t>testMatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specify regex or string pattern to search</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color indexed="2"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -62,8 +84,9 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -569,26 +592,55 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="15.421875"/>
-    <col customWidth="1" min="3" max="3" width="11.8515625"/>
-    <col customWidth="1" min="4" max="4" width="110.421875"/>
+    <col customWidth="1" min="1" max="1" width="15.421875"/>
+    <col customWidth="1" min="2" max="2" width="11.8515625"/>
+    <col customWidth="1" min="3" max="3" width="110.421875"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
-      <c r="A1" t="s">
+    <row r="1" ht="49" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="0" copies="1"/>

--- a/configinfo.xlsx
+++ b/configinfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">No fields are mandatory, if you don't provide it will search whole project root for .spec or .test by default. But after whole search if any .only is found it will switch its default setting that was searching for .spec or .test and running all to just searching for .only specified test and running.</t>
   </si>
@@ -42,7 +42,37 @@
     <t>testMatch</t>
   </si>
   <si>
-    <t xml:space="preserve">specify regex or string pattern to search</t>
+    <t xml:space="preserve">specify regex or string pattern to search **-means recursive</t>
+  </si>
+  <si>
+    <t>testIgnore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specify regex or string pattern to search **-means recursive. And it ignores those test matching pattern</t>
+  </si>
+  <si>
+    <t>timeout</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">max time while test should finish.Default-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30000ms</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -64,12 +94,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="5"/>
+        <bgColor indexed="5"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,10 +120,15 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,13 +646,13 @@
       <c r="C1" s="2"/>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -635,6 +676,28 @@
       </c>
       <c r="C4" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/configinfo.xlsx
+++ b/configinfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">No fields are mandatory, if you don't provide it will search whole project root for .spec or .test by default. But after whole search if any .only is found it will switch its default setting that was searching for .spec or .test and running all to just searching for .only specified test and running.</t>
   </si>
@@ -73,6 +73,12 @@
       </rPr>
       <t>30000ms</t>
     </r>
+  </si>
+  <si>
+    <t>globalTimeout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after doing npx playwright test all scenarios should finish within this time span</t>
   </si>
 </sst>
 </file>
@@ -700,6 +706,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" ht="14.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/configinfo.xlsx
+++ b/configinfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">No fields are mandatory, if you don't provide it will search whole project root for .spec or .test by default. But after whole search if any .only is found it will switch its default setting that was searching for .spec or .test and running all to just searching for .only specified test and running.</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t xml:space="preserve">after doing npx playwright test all scenarios should finish within this time span</t>
+  </si>
+  <si>
+    <t>forbidOnly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean type. If test in path has .only fails or throws error. As .only is used for debugging and it is used to run only marked scenarios bypassing other, so this can cause problem when we push to CICD</t>
   </si>
 </sst>
 </file>
@@ -126,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
@@ -134,6 +140,9 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -717,6 +726,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="8" ht="28.5">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/configinfo.xlsx
+++ b/configinfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">No fields are mandatory, if you don't provide it will search whole project root for .spec or .test by default. But after whole search if any .only is found it will switch its default setting that was searching for .spec or .test and running all to just searching for .only specified test and running.</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t xml:space="preserve">boolean type. If test in path has .only fails or throws error. As .only is used for debugging and it is used to run only marked scenarios bypassing other, so this can cause problem when we push to CICD</t>
+  </si>
+  <si>
+    <t>reporter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">which reporter/s are required in which final report will be generated. Values-"list" | "dot" | "line" | "github" | "json" | "junit" | "null" | "html". We can provide string reporter:'list' or reporter: [["html"], ["json"], ["dot"]]</t>
   </si>
 </sst>
 </file>
@@ -737,6 +743,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="9" ht="28.5">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/configinfo.xlsx
+++ b/configinfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">No fields are mandatory, if you don't provide it will search whole project root for .spec or .test by default. But after whole search if any .only is found it will switch its default setting that was searching for .spec or .test and running all to just searching for .only specified test and running.</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t xml:space="preserve">which reporter/s are required in which final report will be generated. Values-"list" | "dot" | "line" | "github" | "json" | "junit" | "null" | "html". We can provide string reporter:'list' or reporter: [["html"], ["json"], ["dot"]]</t>
+  </si>
+  <si>
+    <t>workers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by default if we don't specify worker/s it gets logical core count. But if we specify it divide worker/s per file/s(Given fullyParralel:false)</t>
   </si>
 </sst>
 </file>
@@ -754,6 +760,17 @@
         <v>18</v>
       </c>
     </row>
+    <row r="10" ht="28.5">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/configinfo.xlsx
+++ b/configinfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">No fields are mandatory, if you don't provide it will search whole project root for .spec or .test by default. But after whole search if any .only is found it will switch its default setting that was searching for .spec or .test and running all to just searching for .only specified test and running.</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t xml:space="preserve">by default if we don't specify worker/s it gets logical core count. But if we specify it divide worker/s per file/s(Given fullyParralel:false)</t>
+  </si>
+  <si>
+    <t>fullyParallel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when fullyParallel=true and worker count&gt;1 then playwright first collects all tests from all file and run by. So when fullyParallel= false and workers&gt;1 then workers are distributed among files if fullyParallel=true and workers&gt;1 then playwright collects all test from all files put them in pool and workers executes from there and not files.</t>
   </si>
 </sst>
 </file>
@@ -771,6 +777,17 @@
         <v>20</v>
       </c>
     </row>
+    <row r="11" ht="42.75">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/configinfo.xlsx
+++ b/configinfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">No fields are mandatory, if you don't provide it will search whole project root for .spec or .test by default. But after whole search if any .only is found it will switch its default setting that was searching for .spec or .test and running all to just searching for .only specified test and running.</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t xml:space="preserve">when fullyParallel=true and worker count&gt;1 then playwright first collects all tests from all file and run by. So when fullyParallel= false and workers&gt;1 then workers are distributed among files if fullyParallel=true and workers&gt;1 then playwright collects all test from all files put them in pool and workers executes from there and not files.</t>
+  </si>
+  <si>
+    <t>retries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retires simply means retrying if test is failing for N number of time. Value type is number</t>
   </si>
 </sst>
 </file>
@@ -788,6 +794,17 @@
         <v>22</v>
       </c>
     </row>
+    <row r="12" ht="14.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/configinfo.xlsx
+++ b/configinfo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t xml:space="preserve">No fields are mandatory, if you don't provide it will search whole project root for .spec or .test by default. 
 But after whole search if any .only is found it will switch its default setting that was searching for .spec or .test and running all to just searching for .only specified test and running.</t>
@@ -123,6 +123,12 @@
   <si>
     <t xml:space="preserve">Expect is an object. Expect.timeout important property which is applied to expect which we used to assert</t>
   </si>
+  <si>
+    <t xml:space="preserve">outputDir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outputDir property is a configuration setting that determines where test artifacts are saved during and after a test run. Related to-Failed test screenshots, Video recordings, Trace files (.zip) and attached attributes</t>
+  </si>
 </sst>
 </file>
 
@@ -131,7 +137,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +178,12 @@
     </font>
     <font>
       <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -225,7 +237,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -251,6 +263,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -443,10 +459,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -593,6 +609,17 @@
       </c>
       <c r="C13" s="3" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/configinfo.xlsx
+++ b/configinfo.xlsx
@@ -8,7 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="root level" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="use level" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t xml:space="preserve">No fields are mandatory, if you don't provide it will search whole project root for .spec or .test by default. 
 But after whole search if any .only is found it will switch its default setting that was searching for .spec or .test and running all to just searching for .only specified test and running.</t>
@@ -129,6 +130,12 @@
   <si>
     <t xml:space="preserve">outputDir property is a configuration setting that determines where test artifacts are saved during and after a test run. Related to-Failed test screenshots, Video recordings, Trace files (.zip) and attached attributes</t>
   </si>
+  <si>
+    <t xml:space="preserve">globalSetup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We need to export as default and this will be running in initial phase before any test once.</t>
+  </si>
 </sst>
 </file>
 
@@ -137,7 +144,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +191,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -237,7 +250,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -267,6 +280,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -459,10 +476,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -622,6 +639,17 @@
         <v>28</v>
       </c>
     </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
@@ -634,4 +662,39 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/configinfo.xlsx
+++ b/configinfo.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t xml:space="preserve">No fields are mandatory, if you don't provide it will search whole project root for .spec or .test by default. 
 But after whole search if any .only is found it will switch its default setting that was searching for .spec or .test and running all to just searching for .only specified test and running.</t>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t xml:space="preserve">We need to export as default and this will be running in initial phase before any test once.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">globalTeardown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We need to export as default and this will be running at end post all scenario run finishes</t>
   </si>
 </sst>
 </file>
@@ -476,10 +482,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -648,6 +654,17 @@
       </c>
       <c r="C15" s="3" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/configinfo.xlsx
+++ b/configinfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="root level" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t xml:space="preserve">No fields are mandatory, if you don't provide it will search whole project root for .spec or .test by default. 
 But after whole search if any .only is found it will switch its default setting that was searching for .spec or .test and running all to just searching for .only specified test and running.</t>
@@ -142,6 +142,21 @@
   <si>
     <t xml:space="preserve">We need to export as default and this will be running at end post all scenario run finishes</t>
   </si>
+  <si>
+    <t xml:space="preserve">webServer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">webServer: { url: "http://localhost:9000", timeout: 10000, command: "node ./myserver.js", stdout: "pipe", }  It basically wait for success response then run test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">headless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean type. Headless true means without opening browser run</t>
+  </si>
 </sst>
 </file>
 
@@ -194,18 +209,21 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -261,35 +279,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -482,97 +500,97 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="129.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="129.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="49" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -580,10 +598,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -591,7 +609,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -602,7 +620,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -613,13 +631,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="0" t="s">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -627,18 +645,18 @@
       <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -649,10 +667,10 @@
       <c r="A15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -660,11 +678,22 @@
       <c r="A16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -686,23 +715,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="75.51"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/configinfo.xlsx
+++ b/configinfo.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t xml:space="preserve">No fields are mandatory, if you don't provide it will search whole project root for .spec or .test by default. 
 But after whole search if any .only is found it will switch its default setting that was searching for .spec or .test and running all to just searching for .only specified test and running.</t>
@@ -157,6 +157,12 @@
   <si>
     <t xml:space="preserve">boolean type. Headless true means without opening browser run</t>
   </si>
+  <si>
+    <t xml:space="preserve">baseURL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baseURL is use to set base url like http://localhost:3000 and in your testcase you can add just path</t>
+  </si>
 </sst>
 </file>
 
@@ -165,7 +171,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +230,18 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -274,7 +292,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -308,6 +326,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -715,10 +741,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -748,7 +774,21 @@
         <v>37</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="http://localhost:3000"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/configinfo.xlsx
+++ b/configinfo.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t xml:space="preserve">No fields are mandatory, if you don't provide it will search whole project root for .spec or .test by default. 
 But after whole search if any .only is found it will switch its default setting that was searching for .spec or .test and running all to just searching for .only specified test and running.</t>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t xml:space="preserve">baseURL is use to set base url like http://localhost:3000 and in your testcase you can add just path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">viewport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">property determines the resolution and dimensions of the web page as it is rendered inside the browser</t>
   </si>
 </sst>
 </file>
@@ -741,10 +747,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -783,6 +789,17 @@
       </c>
       <c r="C3" s="10" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/configinfo.xlsx
+++ b/configinfo.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t xml:space="preserve">No fields are mandatory, if you don't provide it will search whole project root for .spec or .test by default. 
 But after whole search if any .only is found it will switch its default setting that was searching for .spec or .test and running all to just searching for .only specified test and running.</t>
@@ -169,6 +169,12 @@
   <si>
     <t xml:space="preserve">property determines the resolution and dimensions of the web page as it is rendered inside the browser</t>
   </si>
+  <si>
+    <t xml:space="preserve">browserName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tell browser name in which test executes</t>
+  </si>
 </sst>
 </file>
 
@@ -177,7 +183,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,16 +244,22 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -298,7 +310,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -340,6 +352,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -747,14 +763,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="75.51"/>
   </cols>
   <sheetData>
@@ -798,8 +815,19 @@
       <c r="B4" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="11" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/configinfo.xlsx
+++ b/configinfo.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t xml:space="preserve">No fields are mandatory, if you don't provide it will search whole project root for .spec or .test by default. 
 But after whole search if any .only is found it will switch its default setting that was searching for .spec or .test and running all to just searching for .only specified test and running.</t>
@@ -128,7 +128,7 @@
     <t xml:space="preserve">outputDir</t>
   </si>
   <si>
-    <t xml:space="preserve">outputDir property is a configuration setting that determines where test artifacts are saved during and after a test run. Related to-Failed test screenshots, Video recordings, Trace files (.zip) and attached attributes</t>
+    <t xml:space="preserve">outputDir property is a configuration setting that determines where test artifacts are saved during and after a test run. Related to-all values supported in screenshot prop in use playwright config, Video recordings, Trace files (.zip) and attached attributes</t>
   </si>
   <si>
     <t xml:space="preserve">globalSetup</t>
@@ -174,6 +174,21 @@
   </si>
   <si>
     <t xml:space="preserve">tell browser name in which test executes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">screenshot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">property with allowed values:'off' | 'on' | 'only-on-failure' | 'on-first-failure'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on: Takes a screenshot for every single test (high storage usage).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only-on-failure: The most popular choice; it only saves a screenshot if the test fails.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on-first-retry: Only takes it if the test failed once and is being retried.</t>
   </si>
 </sst>
 </file>
@@ -183,7 +198,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,18 +257,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -347,16 +350,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -551,7 +554,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -763,16 +766,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="75.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="75.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -786,53 +789,79 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="http://localhost:3000"/>
+    <hyperlink ref="C3" r:id="rId1" display="baseURL is use to set base url like http://localhost:3000 and in your testcase you can add just path"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/configinfo.xlsx
+++ b/configinfo.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t xml:space="preserve">No fields are mandatory, if you don't provide it will search whole project root for .spec or .test by default. 
 But after whole search if any .only is found it will switch its default setting that was searching for .spec or .test and running all to just searching for .only specified test and running.</t>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t xml:space="preserve">on-first-retry: Only takes it if the test failed once and is being retried.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">video</t>
   </si>
 </sst>
 </file>
@@ -554,7 +557,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="1" sqref="C11:C13 C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -766,10 +769,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -856,6 +859,32 @@
     </row>
     <row r="9" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="11" t="s">
         <v>48</v>
       </c>
     </row>

--- a/configinfo.xlsx
+++ b/configinfo.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t xml:space="preserve">No fields are mandatory, if you don't provide it will search whole project root for .spec or .test by default. 
 But after whole search if any .only is found it will switch its default setting that was searching for .spec or .test and running all to just searching for .only specified test and running.</t>
@@ -192,6 +192,18 @@
   </si>
   <si>
     <t xml:space="preserve">video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">property with allowed values:'off' | 'on' | 'retain-on-failure' | 'on-first-retry'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retain-on-failure': The most popular choice; it only saves a screenshot if the test fails.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">off' | 'on' | 'retain-on-failure' | 'on-first-retry' | 'on-all-retries' | 'retain-on-first-failure'</t>
   </si>
 </sst>
 </file>
@@ -316,7 +328,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -362,6 +374,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -557,7 +573,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="1" sqref="C11:C13 C14"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -769,10 +785,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11:C13"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -870,7 +886,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -878,14 +894,25 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="11" t="s">
-        <v>47</v>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="12" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="11" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/configinfo.xlsx
+++ b/configinfo.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t xml:space="preserve">No fields are mandatory, if you don't provide it will search whole project root for .spec or .test by default. 
 But after whole search if any .only is found it will switch its default setting that was searching for .spec or .test and running all to just searching for .only specified test and running.</t>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t xml:space="preserve">off' | 'on' | 'retain-on-failure' | 'on-first-retry' | 'on-all-retries' | 'retain-on-first-failure'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storageState</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storageState is property where we specify json which have stored local storage,auth related,session cookies. And we use same json to call different test and playwright internally add these info while creating context in test/s</t>
   </si>
 </sst>
 </file>
@@ -328,7 +334,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -365,20 +371,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -785,16 +783,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="75.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="83.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -830,7 +828,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -856,25 +854,25 @@
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="11" t="s">
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="11" t="s">
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="11" t="s">
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -882,37 +880,48 @@
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="11" t="s">
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="11" t="s">
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/configinfo.xlsx
+++ b/configinfo.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="root level" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="use level" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="project level" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
   <si>
     <t xml:space="preserve">No fields are mandatory, if you don't provide it will search whole project root for .spec or .test by default. 
 But after whole search if any .only is found it will switch its default setting that was searching for .spec or .test and running all to just searching for .only specified test and running.</t>
@@ -211,6 +212,15 @@
   <si>
     <t xml:space="preserve">storageState is property where we specify json which have stored local storage,auth related,session cookies. And we use same json to call different test and playwright internally add these info while creating context in test/s</t>
   </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unique name given by which we can run config</t>
+  </si>
 </sst>
 </file>
 
@@ -219,7 +229,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,12 +289,6 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -334,7 +338,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -373,10 +377,6 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -785,8 +785,8 @@
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -902,7 +902,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -920,7 +920,7 @@
       <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -936,4 +936,54 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.93"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/configinfo.xlsx
+++ b/configinfo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t xml:space="preserve">No fields are mandatory, if you don't provide it will search whole project root for .spec or .test by default. 
 But after whole search if any .only is found it will switch its default setting that was searching for .spec or .test and running all to just searching for .only specified test and running.</t>
@@ -221,6 +221,12 @@
   <si>
     <t xml:space="preserve">unique name given by which we can run config</t>
   </si>
+  <si>
+    <t xml:space="preserve">directory or folder in which test stays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if used with testDir, it will search in that directory specified and will run matching scenarios</t>
+  </si>
 </sst>
 </file>
 
@@ -229,7 +235,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +295,12 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -338,7 +350,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -377,6 +389,10 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -943,10 +959,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -977,6 +993,28 @@
         <v>58</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/configinfo.xlsx
+++ b/configinfo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
   <si>
     <t xml:space="preserve">No fields are mandatory, if you don't provide it will search whole project root for .spec or .test by default. 
 But after whole search if any .only is found it will switch its default setting that was searching for .spec or .test and running all to just searching for .only specified test and running.</t>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t xml:space="preserve">if used with testDir, it will search in that directory specified and will run matching scenarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if used with testDir, it will search in that directory specified and will ignore scenarios matching</t>
   </si>
 </sst>
 </file>
@@ -959,16 +962,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="79.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1013,6 +1016,17 @@
       </c>
       <c r="C4" s="0" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/configinfo.xlsx
+++ b/configinfo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
   <si>
     <t xml:space="preserve">No fields are mandatory, if you don't provide it will search whole project root for .spec or .test by default. 
 But after whole search if any .only is found it will switch its default setting that was searching for .spec or .test and running all to just searching for .only specified test and running.</t>
@@ -230,6 +230,42 @@
   <si>
     <t xml:space="preserve">if used with testDir, it will search in that directory specified and will ignore scenarios matching</t>
   </si>
+  <si>
+    <t xml:space="preserve">always remember if workers is defined at root level, always use count of workers&lt;=root</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">during search phase get all scenarios in pool and execution is random scenario from random file. Not like one file scenarios then once completed 2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> file all scenarios</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -238,7 +274,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +339,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -962,10 +1006,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1029,6 +1073,28 @@
         <v>61</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/configinfo.xlsx
+++ b/configinfo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
   <si>
     <t xml:space="preserve">No fields are mandatory, if you don't provide it will search whole project root for .spec or .test by default. 
 But after whole search if any .only is found it will switch its default setting that was searching for .spec or .test and running all to just searching for .only specified test and running.</t>
@@ -265,6 +265,12 @@
       </rPr>
       <t xml:space="preserve"> file all scenarios</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">grep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">used to run scenario by regex provided matches description. If you are using string value directly as value it will not work better to use new RegExp(“string value”)</t>
   </si>
 </sst>
 </file>
@@ -1006,10 +1012,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1095,6 +1101,17 @@
         <v>63</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/configinfo.xlsx
+++ b/configinfo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
   <si>
     <t xml:space="preserve">No fields are mandatory, if you don't provide it will search whole project root for .spec or .test by default. 
 But after whole search if any .only is found it will switch its default setting that was searching for .spec or .test and running all to just searching for .only specified test and running.</t>
@@ -271,6 +271,12 @@
   </si>
   <si>
     <t xml:space="preserve">used to run scenario by regex provided matches description. If you are using string value directly as value it will not work better to use new RegExp(“string value”)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grepInvert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">used to ignore scenario by regex provided matches description. If you are using string value directly as value it will not work better to use new RegExp(“string value”)</t>
   </si>
 </sst>
 </file>
@@ -1012,10 +1018,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1112,6 +1118,17 @@
         <v>65</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/configinfo.xlsx
+++ b/configinfo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
   <si>
     <t xml:space="preserve">No fields are mandatory, if you don't provide it will search whole project root for .spec or .test by default. 
 But after whole search if any .only is found it will switch its default setting that was searching for .spec or .test and running all to just searching for .only specified test and running.</t>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t xml:space="preserve">used to ignore scenario by regex provided matches description. If you are using string value directly as value it will not work better to use new RegExp(“string value”)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project object use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">output ss, video ,trace path</t>
   </si>
 </sst>
 </file>
@@ -1018,10 +1024,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1129,6 +1135,17 @@
         <v>67</v>
       </c>
     </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/configinfo.xlsx
+++ b/configinfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="root level" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
   <si>
     <t xml:space="preserve">No fields are mandatory, if you don't provide it will search whole project root for .spec or .test by default. 
 But after whole search if any .only is found it will switch its default setting that was searching for .spec or .test and running all to just searching for .only specified test and running.</t>
@@ -148,6 +148,15 @@
   </si>
   <si>
     <t xml:space="preserve">webServer: { url: "http://localhost:9000", timeout: 10000, command: "node ./myserver.js", stdout: "pipe", }  It basically wait for success response then run test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grepInvert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">used to ignore scenario by regex provided matches description. If you are using string value directly as value it will not work better to use new RegExp(“string value”)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">output ss, video ,trace path</t>
   </si>
   <si>
     <t xml:space="preserve">headless</t>
@@ -273,16 +282,7 @@
     <t xml:space="preserve">used to run scenario by regex provided matches description. If you are using string value directly as value it will not work better to use new RegExp(“string value”)</t>
   </si>
   <si>
-    <t xml:space="preserve">grepInvert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">used to ignore scenario by regex provided matches description. If you are using string value directly as value it will not work better to use new RegExp(“string value”)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Project object use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">output ss, video ,trace path</t>
   </si>
 </sst>
 </file>
@@ -452,12 +452,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -649,10 +649,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -843,6 +843,28 @@
       </c>
       <c r="C17" s="8" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -867,7 +889,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B17:B19 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -889,120 +911,120 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="9" t="s">
-        <v>51</v>
+      <c r="C12" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1026,8 +1048,8 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="1" sqref="B17:B19 A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1049,46 +1071,46 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="C5" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1096,54 +1118,54 @@
         <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>66</v>
+      <c r="A9" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/configinfo.xlsx
+++ b/configinfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="root level" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
   <si>
     <t xml:space="preserve">No fields are mandatory, if you don't provide it will search whole project root for .spec or .test by default. 
 But after whole search if any .only is found it will switch its default setting that was searching for .spec or .test and running all to just searching for .only specified test and running.</t>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t xml:space="preserve">Project object use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provide dependency which will run before test</t>
   </si>
 </sst>
 </file>
@@ -353,18 +359,18 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -452,12 +458,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -651,8 +657,8 @@
   </sheetPr>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17:B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -846,24 +852,24 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -889,7 +895,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B17:B19 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -996,7 +1002,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1046,16 +1052,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="1" sqref="B17:B19 A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="79.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="79.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1069,103 +1075,114 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
